--- a/experiment result/64_0.6_40_zs20_kappa_lp.xlsx
+++ b/experiment result/64_0.6_40_zs20_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01706072677958955</v>
+        <v>0.006265622879004331</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.02619818893499812</v>
+        <v>0.002522070052348772</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.02648822501893041</v>
+        <v>0.005666445476665965</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.02867392826299247</v>
+        <v>0.002611022166444476</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.01965761933226907</v>
+        <v>0.002404138766521628</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.02219051805801656</v>
+        <v>0.006025491954169253</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.02250569297260623</v>
+        <v>0.003857328554617955</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.02341226567537188</v>
+        <v>0.01057547611983037</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.02299482356400102</v>
+        <v>0.004976598955362832</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.04033043124912748</v>
+        <v>0.00261598796472682</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.05016895432955556</v>
+        <v>0.01299942333822492</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.04251493053389094</v>
+        <v>0.02747596290504255</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.01928085057388652</v>
+        <v>0.001295292147506407</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.03962596847954497</v>
+        <v>0.002268270700947002</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.03490490416798843</v>
+        <v>0.01113088390366048</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.04463683345357226</v>
+        <v>0.01116890914760685</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.02416557541116569</v>
+        <v>0.002798978857085688</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.01916338173258384</v>
+        <v>0.0009872186810830786</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0273291832097139</v>
+        <v>0.003457734054688177</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.03220157514559089</v>
+        <v>0.002475300027389456</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.02107743564627042</v>
+        <v>0.001384215146136059</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.03329000291718941</v>
+        <v>0.01488558716803912</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.04377110019335938</v>
+        <v>0.01188443380383432</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.01233912969636709</v>
+        <v>0.00157394209265662</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.01467128898920554</v>
+        <v>0.001622504556243472</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.04111648110916746</v>
+        <v>0.007335902732742844</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.03519547240860164</v>
+        <v>0.008009070027376245</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.01993212093979248</v>
+        <v>0.003165923628523358</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.03395477236600571</v>
+        <v>0.004039342118251467</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.04016674824838423</v>
+        <v>0.008201895212692526</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.009565409297173953</v>
+        <v>0.0008354844991115802</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.02439564776431952</v>
+        <v>0.001633290170545915</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.05611664642362022</v>
+        <v>0.002902456704137037</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0187363582377981</v>
+        <v>0.002068372393403004</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.02519652387502245</v>
+        <v>0.003754631244364843</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.02804498153904347</v>
+        <v>0.002401804699017853</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.02726840853548317</v>
+        <v>0.002015253527344833</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.02940166947589704</v>
+        <v>0.00214558563624566</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.03756807455621504</v>
+        <v>0.002969982858350203</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.04294237141946537</v>
+        <v>0.02980863814388606</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.03727053588610574</v>
+        <v>0.01026402716822354</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.02626427546152434</v>
+        <v>0.01033481780750992</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.03279034147373887</v>
+        <v>0.003130906458829517</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.02901614145737404</v>
+        <v>0.002102023920341053</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.02386852211865198</v>
+        <v>0.004863355467370627</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.03697208047990963</v>
+        <v>0.002682592934197628</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.05259645566338409</v>
+        <v>0.03842823547341306</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.01755169858993815</v>
+        <v>0.0006215264065169767</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.04373838700197803</v>
+        <v>0.005153970536907516</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.01350923931315362</v>
+        <v>0.0007123472566805185</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0303054254435455</v>
+        <v>0.007395583013386412</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.02796619073563432</v>
+        <v>0.001694738757141707</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.006645057304007712</v>
+        <v>4.623413494911076e-05</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.01406545243213964</v>
+        <v>0.0008075225174572962</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.03315831235837007</v>
+        <v>0.006131711739686996</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.03165663128864978</v>
+        <v>0.004834733187972507</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.02618992601675933</v>
+        <v>0.001968660174659292</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0303179697344402</v>
+        <v>0.002281559059341816</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.04037036389661078</v>
+        <v>0.02839819153581433</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.01896456434412832</v>
+        <v>0.0007047343843913501</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.00767383614476462</v>
+        <v>0.0001138502060396987</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.02859606739216566</v>
+        <v>0.01015059714548268</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.03171737354946889</v>
+        <v>0.009993373781435855</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01662789488817083</v>
+        <v>0.0006778728039018632</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.02807966880142119</v>
+        <v>0.03222029364649424</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0309739017913705</v>
+        <v>0.006099210330728788</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.04628113014139913</v>
+        <v>0.0233650268025956</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.02684611500130161</v>
+        <v>0.001946382383970551</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0140553692637685</v>
+        <v>0.001662694935465112</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.02170183252106749</v>
+        <v>0.002644097356146362</v>
       </c>
     </row>
   </sheetData>
